--- a/svip_2/svip时间安排1.1.xlsx
+++ b/svip_2/svip时间安排1.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DLND" sheetId="6" state="hidden" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>开课时间</t>
   </si>
@@ -237,106 +237,118 @@
     <t>SVIP2(S3)</t>
   </si>
   <si>
+    <t>观察数据可视化面板完成分析报告</t>
+  </si>
+  <si>
+    <t>分析问卷数据</t>
+  </si>
+  <si>
+    <t>预测商业决策带来的收益增长</t>
+  </si>
+  <si>
+    <t>基于零售数据挖掘业务特征</t>
+  </si>
+  <si>
+    <t>探索美国单车共享数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 探索数据集</t>
+  </si>
+  <si>
+    <t>检验心理学现象</t>
+  </si>
+  <si>
+    <t>清洗与分析数据</t>
+  </si>
+  <si>
+    <t>研究和总结数据</t>
+  </si>
+  <si>
+    <t>创建一个 Tableau 故事</t>
+  </si>
+  <si>
+    <t>分析 A/B 测试结果</t>
+  </si>
+  <si>
+    <t>简历审阅</t>
+  </si>
+  <si>
+    <t>行为导向模拟面试</t>
+  </si>
+  <si>
+    <t>项目13建议截止时间</t>
+  </si>
+  <si>
+    <t>项目13截止时间前通过率</t>
+  </si>
+  <si>
+    <t>项目13实时通过率</t>
+  </si>
+  <si>
+    <t>数据分析模拟面试实战项目</t>
+  </si>
+  <si>
+    <t>项目14建议截止时间</t>
+  </si>
+  <si>
+    <t>项目14截止时间前通过率</t>
+  </si>
+  <si>
+    <t>项目14实时通过率</t>
+  </si>
+  <si>
+    <t>为慈善机构寻找捐助者</t>
+  </si>
+  <si>
+    <t>项目15建议截止时间</t>
+  </si>
+  <si>
+    <t>项目15截止时间前通过率</t>
+  </si>
+  <si>
+    <t>项目15实时通过率</t>
+  </si>
+  <si>
+    <t>创建客户细分</t>
+  </si>
+  <si>
+    <t>项目16建议截止时间</t>
+  </si>
+  <si>
+    <t>项目16截止时间前通过率</t>
+  </si>
+  <si>
+    <t>项目16实时通过率</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 你的第一个神经网络</t>
+  </si>
+  <si>
+    <t>项目17建议截止时间</t>
+  </si>
+  <si>
+    <t>项目17截止时间前通过率</t>
+  </si>
+  <si>
+    <t>项目17实时通过率</t>
+  </si>
+  <si>
+    <t>孟繁春</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>（B进度）</t>
+    <rPh sb="2" eb="3">
+      <t>jin du</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>黄胜</t>
-  </si>
-  <si>
-    <t>观察数据可视化面板完成分析报告</t>
-  </si>
-  <si>
-    <t>分析问卷数据</t>
-  </si>
-  <si>
-    <t>预测商业决策带来的收益增长</t>
-  </si>
-  <si>
-    <t>基于零售数据挖掘业务特征</t>
-  </si>
-  <si>
-    <t>探索美国单车共享数据</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 探索数据集</t>
-  </si>
-  <si>
-    <t>检验心理学现象</t>
-  </si>
-  <si>
-    <t>清洗与分析数据</t>
-  </si>
-  <si>
-    <t>研究和总结数据</t>
-  </si>
-  <si>
-    <t>创建一个 Tableau 故事</t>
-  </si>
-  <si>
-    <t>分析 A/B 测试结果</t>
-  </si>
-  <si>
-    <t>简历审阅</t>
-  </si>
-  <si>
-    <t>行为导向模拟面试</t>
-  </si>
-  <si>
-    <t>项目13建议截止时间</t>
-  </si>
-  <si>
-    <t>项目13截止时间前通过率</t>
-  </si>
-  <si>
-    <t>项目13实时通过率</t>
-  </si>
-  <si>
-    <t>数据分析模拟面试实战项目</t>
-  </si>
-  <si>
-    <t>项目14建议截止时间</t>
-  </si>
-  <si>
-    <t>项目14截止时间前通过率</t>
-  </si>
-  <si>
-    <t>项目14实时通过率</t>
-  </si>
-  <si>
-    <t>为慈善机构寻找捐助者</t>
-  </si>
-  <si>
-    <t>项目15建议截止时间</t>
-  </si>
-  <si>
-    <t>项目15截止时间前通过率</t>
-  </si>
-  <si>
-    <t>项目15实时通过率</t>
-  </si>
-  <si>
-    <t>创建客户细分</t>
-  </si>
-  <si>
-    <t>项目16建议截止时间</t>
-  </si>
-  <si>
-    <t>项目16截止时间前通过率</t>
-  </si>
-  <si>
-    <t>项目16实时通过率</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 你的第一个神经网络</t>
-  </si>
-  <si>
-    <t>项目17建议截止时间</t>
-  </si>
-  <si>
-    <t>项目17截止时间前通过率</t>
-  </si>
-  <si>
-    <t>项目17实时通过率</t>
-  </si>
-  <si>
-    <t>孟繁春</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +360,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -375,6 +387,18 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -440,10 +464,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,7 +518,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,8 +608,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="13">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -869,9 +916,9 @@
       <c r="C1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -920,7 +967,7 @@
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <f>4/C3</f>
         <v>0.5</v>
       </c>
@@ -945,11 +992,11 @@
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <f>19/B3</f>
         <v>1</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -962,7 +1009,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <f>C6+7</f>
         <v>43354</v>
       </c>
@@ -974,8 +1021,8 @@
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24">
         <v>1.75</v>
       </c>
       <c r="D9" s="12"/>
@@ -986,8 +1033,8 @@
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <f>6/C3</f>
         <v>0.75</v>
       </c>
@@ -999,11 +1046,11 @@
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="19">
         <f>3/B3</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1040,8 +1087,8 @@
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15">
         <f>1/C3</f>
         <v>0.125</v>
       </c>
@@ -1053,8 +1100,8 @@
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1067,7 +1114,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="29">
+      <c r="C16" s="28">
         <f>C12+28</f>
         <v>43396</v>
       </c>
@@ -1079,8 +1126,8 @@
       <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1089,8 +1136,8 @@
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
         <f>4/C3</f>
         <v>0.5</v>
       </c>
@@ -1102,8 +1149,8 @@
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1139,7 +1186,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <f>5/8</f>
         <v>0.625</v>
       </c>
@@ -1151,8 +1198,8 @@
       <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20">
+      <c r="B23" s="21"/>
+      <c r="C23" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1165,7 +1212,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <f>C20+35</f>
         <v>43452</v>
       </c>
@@ -1198,7 +1245,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="20">
+      <c r="C27" s="19">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1210,7 +1257,7 @@
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <f>C24+14</f>
         <v>43466</v>
       </c>
@@ -1228,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <f>8/C3</f>
         <v>1</v>
       </c>
@@ -1238,7 +1285,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="10"/>
-      <c r="C31" s="24"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
@@ -1264,13 +1311,13 @@
       <c r="A35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <f>2/C3</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="5"/>
@@ -4097,8 +4144,8 @@
   </sheetPr>
   <dimension ref="A1:G1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4108,7 +4155,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35"/>
+      <c r="A1" s="34"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
         <v>66</v>
@@ -4122,9 +4169,12 @@
       <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="36"/>
+      <c r="A2" s="35"/>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
@@ -4134,15 +4184,18 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -4152,15 +4205,18 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>103</v>
+      <c r="E3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4170,15 +4226,18 @@
       <c r="D4" s="4">
         <v>6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="12">
         <v>4</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>4</v>
       </c>
+      <c r="G4" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -4194,9 +4253,12 @@
       <c r="F5" s="6">
         <v>43551</v>
       </c>
+      <c r="G5" s="18">
+        <v>43551</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -4209,78 +4271,85 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="45" t="s">
-        <v>71</v>
+      <c r="A7" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="30">
-        <f t="shared" ref="C7:F7" si="0">C5+7</f>
+      <c r="C7" s="29">
+        <f t="shared" ref="C7:G7" si="0">C5+7</f>
         <v>43460</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>43460</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" si="0"/>
         <v>43488</v>
       </c>
-      <c r="F7" s="30">
-        <f t="shared" si="0"/>
+      <c r="F7" s="29">
+        <f>F5+7</f>
         <v>43558</v>
       </c>
+      <c r="G7" s="29">
+        <f>G5+3</f>
+        <v>43554</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f>3/6</f>
         <v>0.5</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f t="shared" ref="E8:E9" si="1">4/4</f>
         <v>1</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="19">
         <f t="shared" ref="C9:D9" si="2">6/6</f>
         <v>1</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G9" s="39"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
-        <v>72</v>
+      <c r="A10" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" ref="C10:F10" si="3">C7+7</f>
+        <f t="shared" ref="C10:G10" si="3">C7+7</f>
         <v>43467</v>
       </c>
       <c r="D10" s="6">
@@ -4295,207 +4364,229 @@
         <f t="shared" si="3"/>
         <v>43565</v>
       </c>
+      <c r="G10" s="18">
+        <f>G7+4</f>
+        <v>43558</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>3/6</f>
         <v>0.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f t="shared" ref="D11:D12" si="4">6/6</f>
         <v>1</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <f t="shared" ref="E11:E12" si="5">4/4</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="19">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="45" t="s">
-        <v>73</v>
+      <c r="A13" s="44" t="s">
+        <v>72</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="31">
-        <f t="shared" ref="C13:F13" si="6">C10+7</f>
+      <c r="C13" s="30">
+        <f t="shared" ref="C13:G13" si="6">C10+7</f>
         <v>43474</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <f t="shared" si="6"/>
         <v>43474</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="30">
         <f t="shared" si="6"/>
         <v>43502</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="30">
+        <f>F10+14</f>
+        <v>43579</v>
+      </c>
+      <c r="G13" s="30">
         <f t="shared" si="6"/>
-        <v>43572</v>
+        <v>43565</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <f t="shared" ref="C14:D14" si="7">4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f>3/4</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="19">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="19">
         <f>4/4</f>
         <v>1</v>
       </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="44" t="s">
-        <v>74</v>
+      <c r="A16" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="32">
-        <f t="shared" ref="C16:F16" si="8">C13+7</f>
+      <c r="C16" s="31">
+        <f t="shared" ref="C16:G16" si="8">C13+7</f>
         <v>43481</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <f t="shared" si="8"/>
         <v>43481</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <f t="shared" si="8"/>
         <v>43509</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
+        <f>F13+14</f>
+        <v>43593</v>
+      </c>
+      <c r="G16" s="31">
         <f t="shared" si="8"/>
-        <v>43579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <f>2/C4</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="17">
         <f>4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
         <f>3/4</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="42"/>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <f>4/C4</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f>4/4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="45" t="s">
-        <v>75</v>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="31">
-        <f t="shared" ref="C19:F19" si="9">C16+14</f>
+      <c r="C19" s="30">
+        <f t="shared" ref="C19:G19" si="9">C16+14</f>
         <v>43495</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="30">
         <f t="shared" si="9"/>
         <v>43495</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <f t="shared" si="9"/>
         <v>43523</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
+        <f>F16+21</f>
+        <v>43614</v>
+      </c>
+      <c r="G19" s="30">
         <f t="shared" si="9"/>
-        <v>43593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+        <v>43586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="42"/>
       <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="25">
         <f t="shared" ref="C20:C21" si="10">5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <f t="shared" ref="D20:D21" si="11">4/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="38">
         <f>2/4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="42"/>
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
@@ -4511,51 +4602,57 @@
         <f>2/5</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="44" t="s">
-        <v>76</v>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="32">
-        <f t="shared" ref="C22:F22" si="12">C19+14</f>
+      <c r="C22" s="31">
+        <f t="shared" ref="C22:G22" si="12">C19+14</f>
         <v>43509</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <f t="shared" si="12"/>
         <v>43509</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f t="shared" si="12"/>
         <v>43537</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
+        <f>F19+21</f>
+        <v>43635</v>
+      </c>
+      <c r="G22" s="31">
         <f t="shared" si="12"/>
-        <v>43607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="42"/>
       <c r="B23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <f t="shared" ref="C23:C24" si="13">5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f t="shared" ref="D23:D24" si="14">3/6</f>
         <v>0.5</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="38">
         <f>2/4</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="42"/>
       <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
@@ -4571,44 +4668,50 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="45" t="s">
-        <v>77</v>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="31">
-        <f t="shared" ref="C25:F25" si="15">C22+14</f>
+      <c r="C25" s="30">
+        <f t="shared" ref="C25:G25" si="15">C22+14</f>
         <v>43523</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <f t="shared" si="15"/>
         <v>43523</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <f t="shared" si="15"/>
         <v>43551</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
+        <f>F22+21</f>
+        <v>43656</v>
+      </c>
+      <c r="G25" s="30">
         <f t="shared" si="15"/>
-        <v>43621</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="42"/>
       <c r="B26" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <f>1/C4</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="42"/>
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -4617,97 +4720,106 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="44" t="s">
-        <v>78</v>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="32">
-        <f t="shared" ref="C28:F28" si="16">C25+14</f>
+      <c r="C28" s="31">
+        <f t="shared" ref="C28:G28" si="16">C25+14</f>
         <v>43537</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="39">
         <f t="shared" si="16"/>
         <v>43537</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <f t="shared" si="16"/>
         <v>43565</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31"/>
+      <c r="G28" s="31">
         <f t="shared" si="16"/>
-        <v>43635</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="43"/>
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="42"/>
       <c r="B29" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="41"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="42"/>
       <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="45" t="s">
-        <v>79</v>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="31">
-        <f t="shared" ref="C31:F31" si="17">C28+14</f>
+      <c r="C31" s="30">
+        <f t="shared" ref="C31:G31" si="17">C28+14</f>
         <v>43551</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="39">
         <f t="shared" si="17"/>
         <v>43551</v>
       </c>
-      <c r="E31" s="31">
+      <c r="E31" s="30">
         <f t="shared" si="17"/>
         <v>43579</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30">
         <f t="shared" si="17"/>
-        <v>43649</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="42"/>
       <c r="B32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="41"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="43"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="42"/>
       <c r="B33" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="44" t="s">
-        <v>80</v>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <f>C31+14</f>
         <v>43565</v>
       </c>
@@ -4716,311 +4828,323 @@
         <v>43537</v>
       </c>
       <c r="E34" s="8">
-        <f t="shared" ref="E34:F34" si="18">E31+14</f>
+        <f t="shared" ref="E34:G34" si="18">E31+14</f>
         <v>43593</v>
       </c>
       <c r="F34" s="8">
+        <f>F25+14</f>
+        <v>43670</v>
+      </c>
+      <c r="G34" s="8">
         <f t="shared" si="18"/>
-        <v>43663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+        <v>43656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="42"/>
       <c r="B35" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="42"/>
       <c r="B36" s="7" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="45" t="s">
-        <v>81</v>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="44" t="s">
+        <v>80</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C37" s="31">
-        <f t="shared" ref="C37:F37" si="19">C34+14</f>
+      <c r="C37" s="30">
+        <f t="shared" ref="C37:G37" si="19">C34+14</f>
         <v>43579</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="39">
         <f t="shared" si="19"/>
         <v>43551</v>
       </c>
-      <c r="E37" s="31">
+      <c r="E37" s="30">
         <f t="shared" si="19"/>
         <v>43607</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
         <f t="shared" si="19"/>
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="42"/>
       <c r="B38" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="41"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="42"/>
       <c r="B39" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="45" t="s">
-        <v>82</v>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="44" t="s">
+        <v>81</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <f>C37+7</f>
         <v>43586</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <v>43586</v>
       </c>
-      <c r="E40" s="31">
-        <f t="shared" ref="E40:F40" si="20">E37+7</f>
+      <c r="E40" s="30">
+        <f t="shared" ref="E40:G40" si="20">E37+7</f>
         <v>43614</v>
       </c>
-      <c r="F40" s="31">
-        <f t="shared" si="20"/>
-        <v>43684</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="42"/>
       <c r="B41" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="42"/>
       <c r="B42" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="44" t="s">
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="32">
+      <c r="C43" s="31">
         <f t="shared" ref="C43:F43" si="21">C40+7</f>
         <v>43593</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <f t="shared" si="21"/>
         <v>43593</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <f t="shared" si="21"/>
         <v>43621</v>
       </c>
-      <c r="F43" s="32">
-        <f t="shared" si="21"/>
-        <v>43691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="43"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="42"/>
       <c r="B44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="43"/>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="42"/>
       <c r="B45" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="45" t="s">
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <f t="shared" ref="C46:F46" si="22">C43+7</f>
         <v>43600</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <f t="shared" si="22"/>
         <v>43600</v>
       </c>
-      <c r="E46" s="31">
+      <c r="E46" s="30">
         <f t="shared" si="22"/>
         <v>43628</v>
       </c>
-      <c r="F46" s="31">
-        <f t="shared" si="22"/>
-        <v>43698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="42"/>
       <c r="B47" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
     </row>
-    <row r="48" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+    <row r="48" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="42"/>
       <c r="B48" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="44" t="s">
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="32">
+      <c r="C49" s="31">
         <f t="shared" ref="C49:F49" si="23">C46+14</f>
         <v>43614</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <f t="shared" si="23"/>
         <v>43614</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <f t="shared" si="23"/>
         <v>43642</v>
       </c>
-      <c r="F49" s="32">
-        <f t="shared" si="23"/>
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="42"/>
       <c r="B50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="42"/>
+      <c r="B51" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="41"/>
-    </row>
-    <row r="51" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="45" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="31">
+      <c r="C52" s="30">
         <f t="shared" ref="C52:F52" si="24">C49+14</f>
         <v>43628</v>
       </c>
-      <c r="D52" s="31">
+      <c r="D52" s="30">
         <f t="shared" si="24"/>
         <v>43628</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <f t="shared" si="24"/>
         <v>43656</v>
       </c>
-      <c r="F52" s="31">
-        <f t="shared" si="24"/>
-        <v>43726</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="42"/>
       <c r="B53" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="42"/>
+      <c r="B54" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="41"/>
-    </row>
-    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
-      <c r="B54" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
-    </row>
-    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="31">
+      <c r="C55" s="30">
         <f t="shared" ref="C55:F55" si="25">C52+14</f>
         <v>43642</v>
       </c>
-      <c r="D55" s="31">
+      <c r="D55" s="30">
         <f t="shared" si="25"/>
         <v>43642</v>
       </c>
-      <c r="E55" s="31">
+      <c r="E55" s="30">
         <f t="shared" si="25"/>
         <v>43670</v>
       </c>
-      <c r="F55" s="31">
-        <f t="shared" si="25"/>
-        <v>43740</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+      <c r="F55" s="30"/>
+    </row>
+    <row r="56" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="42"/>
       <c r="B56" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="42"/>
+      <c r="B57" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="41"/>
-    </row>
-    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
-      <c r="B57" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="41"/>
-    </row>
-    <row r="58" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="34"/>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
         <v>66</v>
@@ -5031,313 +5155,319 @@
       <c r="E58" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="36"/>
+      <c r="F58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="35"/>
       <c r="B59" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
     </row>
-    <row r="60" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="38"/>
+    <row r="60" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="37"/>
       <c r="B60" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="36"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="35"/>
       <c r="B61" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="12"/>
     </row>
-    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="36"/>
+    <row r="62" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="35"/>
       <c r="B62" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="18">
         <f t="shared" ref="C62:F62" si="26">C5+182</f>
         <v>43635</v>
       </c>
-      <c r="D62" s="19">
+      <c r="D62" s="18">
         <f t="shared" si="26"/>
         <v>43635</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="18">
         <f t="shared" si="26"/>
         <v>43663</v>
       </c>
-      <c r="F62" s="19">
+      <c r="F62" s="18">
         <f t="shared" si="26"/>
         <v>43733</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="44"/>
+    <row r="63" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="43"/>
       <c r="B63" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
     </row>
-    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="43"/>
+    <row r="64" spans="1:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="42"/>
       <c r="B64" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C64" s="12"/>
-      <c r="D64" s="18"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="43"/>
-      <c r="B65" s="28" t="s">
+      <c r="A65" s="42"/>
+      <c r="B65" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="42"/>
+      <c r="A66" s="41"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
     </row>
     <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="43"/>
+      <c r="A67" s="42"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
     </row>
     <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="43"/>
+      <c r="A68" s="42"/>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
     </row>
     <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="42"/>
+      <c r="A69" s="41"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
     <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="43"/>
+      <c r="A70" s="42"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
     </row>
     <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="43"/>
+      <c r="A71" s="42"/>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
     </row>
     <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A72" s="42"/>
+      <c r="A72" s="41"/>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
     </row>
     <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A73" s="43"/>
+      <c r="A73" s="42"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
     <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A74" s="43"/>
+      <c r="A74" s="42"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
     </row>
     <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A75" s="42"/>
+      <c r="A75" s="41"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
     </row>
     <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A76" s="43"/>
+      <c r="A76" s="42"/>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
     </row>
     <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A77" s="43"/>
+      <c r="A77" s="42"/>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A78" s="42"/>
+      <c r="A78" s="41"/>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A79" s="43"/>
+      <c r="A79" s="42"/>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A80" s="43"/>
+      <c r="A80" s="42"/>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="42"/>
+      <c r="A81" s="41"/>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="43"/>
+      <c r="A82" s="42"/>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
     </row>
     <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="43"/>
+      <c r="A83" s="42"/>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
     </row>
     <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="42"/>
+      <c r="A84" s="41"/>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
     </row>
     <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="43"/>
+      <c r="A85" s="42"/>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
     </row>
     <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="43"/>
+      <c r="A86" s="42"/>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="42"/>
+      <c r="A87" s="41"/>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
     </row>
     <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="43"/>
+      <c r="A88" s="42"/>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
     </row>
     <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="43"/>
+      <c r="A89" s="42"/>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
     </row>
     <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="42"/>
+      <c r="A90" s="41"/>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
     </row>
     <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="43"/>
+      <c r="A91" s="42"/>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
     </row>
     <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="43"/>
+      <c r="A92" s="42"/>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
     </row>
     <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="42"/>
+      <c r="A93" s="41"/>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
     </row>
     <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="43"/>
+      <c r="A94" s="42"/>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
     </row>
     <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="43"/>
+      <c r="A95" s="42"/>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
     </row>
     <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="42"/>
+      <c r="A96" s="41"/>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
     </row>
     <row r="97" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="43"/>
+      <c r="A97" s="42"/>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
     </row>
     <row r="98" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="43"/>
+      <c r="A98" s="42"/>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
     </row>
     <row r="99" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="42"/>
+      <c r="A99" s="41"/>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
     </row>
     <row r="100" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="43"/>
+      <c r="A100" s="42"/>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
     </row>
     <row r="101" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="43"/>
+      <c r="A101" s="42"/>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
     </row>
     <row r="102" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="42"/>
+      <c r="A102" s="41"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
     </row>
     <row r="103" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="43"/>
+      <c r="A103" s="42"/>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
     </row>
     <row r="104" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="43"/>
+      <c r="A104" s="42"/>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
     </row>
     <row r="105" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="42"/>
+      <c r="A105" s="41"/>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
     </row>
     <row r="106" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="43"/>
+      <c r="A106" s="42"/>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
     </row>
     <row r="107" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="43"/>
+      <c r="A107" s="42"/>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
     </row>
     <row r="108" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="42"/>
+      <c r="A108" s="41"/>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
     </row>
     <row r="109" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="43"/>
+      <c r="A109" s="42"/>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
     </row>
     <row r="110" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="43"/>
+      <c r="A110" s="42"/>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
     </row>
     <row r="111" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="42"/>
+      <c r="A111" s="41"/>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
     </row>
     <row r="112" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="43"/>
+      <c r="A112" s="42"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
     </row>
     <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="43"/>
+      <c r="A113" s="42"/>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
     </row>
@@ -9856,5 +9986,8 @@
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
+  <ignoredErrors>
+    <ignoredError sqref="D10:E10 C22 F16 F34 F13 F19 F22 F25" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>